--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H2">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>4.75638584082</v>
+        <v>1.070307697026222</v>
       </c>
       <c r="R2">
-        <v>42.80747256738</v>
+        <v>9.632769273236001</v>
       </c>
       <c r="S2">
-        <v>9.98248597741618E-05</v>
+        <v>4.741178600555372E-05</v>
       </c>
       <c r="T2">
-        <v>9.98248597741618E-05</v>
+        <v>4.741178600555373E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H3">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>3.989332100162666</v>
+        <v>0.7271563406835556</v>
       </c>
       <c r="R3">
-        <v>35.903988901464</v>
+        <v>6.544407066152001</v>
       </c>
       <c r="S3">
-        <v>8.372628521294331E-05</v>
+        <v>3.221109304628837E-05</v>
       </c>
       <c r="T3">
-        <v>8.372628521294333E-05</v>
+        <v>3.221109304628837E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H4">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>25.078968688644</v>
+        <v>2.383725890168667</v>
       </c>
       <c r="R4">
-        <v>225.710718197796</v>
+        <v>21.453533011518</v>
       </c>
       <c r="S4">
-        <v>0.0005263459728475009</v>
+        <v>0.0001055927207798133</v>
       </c>
       <c r="T4">
-        <v>0.0005263459728475009</v>
+        <v>0.0001055927207798133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H5">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>682.9591133017794</v>
+        <v>114.2822196320425</v>
       </c>
       <c r="R5">
-        <v>6146.632019716015</v>
+        <v>1028.539976688382</v>
       </c>
       <c r="S5">
-        <v>0.01433363482241853</v>
+        <v>0.005062398557432163</v>
       </c>
       <c r="T5">
-        <v>0.01433363482241853</v>
+        <v>0.005062398557432164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>17.55436965274</v>
+        <v>21.67151168924045</v>
       </c>
       <c r="R6">
-        <v>157.98932687466</v>
+        <v>195.043605203164</v>
       </c>
       <c r="S6">
-        <v>0.0003684231152926116</v>
+        <v>0.0009599903630347816</v>
       </c>
       <c r="T6">
-        <v>0.0003684231152926116</v>
+        <v>0.0009599903630347817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
         <v>14.72340821318311</v>
@@ -883,10 +883,10 @@
         <v>132.510673918648</v>
       </c>
       <c r="S7">
-        <v>0.0003090081859350081</v>
+        <v>0.0006522078477202127</v>
       </c>
       <c r="T7">
-        <v>0.0003090081859350081</v>
+        <v>0.0006522078477202128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>92.558825461908</v>
+        <v>48.26550685963134</v>
       </c>
       <c r="R8">
-        <v>833.029429157172</v>
+        <v>434.389561736682</v>
       </c>
       <c r="S8">
-        <v>0.001942582473713522</v>
+        <v>0.002138033659887211</v>
       </c>
       <c r="T8">
-        <v>0.001942582473713521</v>
+        <v>0.002138033659887211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>2520.593815101445</v>
+        <v>2313.977994841492</v>
       </c>
       <c r="R9">
-        <v>22685.344335913</v>
+        <v>20825.80195357342</v>
       </c>
       <c r="S9">
-        <v>0.05290107500966371</v>
+        <v>0.1025030744129062</v>
       </c>
       <c r="T9">
-        <v>0.05290107500966371</v>
+        <v>0.1025030744129062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H10">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>39.99707656031</v>
+        <v>19.36836517961533</v>
       </c>
       <c r="R10">
-        <v>359.97368904279</v>
+        <v>174.315286616538</v>
       </c>
       <c r="S10">
-        <v>0.0008394404265405471</v>
+        <v>0.0008579670946259134</v>
       </c>
       <c r="T10">
-        <v>0.000839440426540547</v>
+        <v>0.0008579670946259135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H11">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>33.54682037469022</v>
+        <v>13.15867351805733</v>
       </c>
       <c r="R11">
-        <v>301.9213833722119</v>
+        <v>118.428061662516</v>
       </c>
       <c r="S11">
-        <v>0.0007040653874276758</v>
+        <v>0.0005828942599296251</v>
       </c>
       <c r="T11">
-        <v>0.0007040653874276758</v>
+        <v>0.0005828942599296251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H12">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>210.892359085902</v>
+        <v>43.136075408191</v>
       </c>
       <c r="R12">
-        <v>1898.031231773118</v>
+        <v>388.224678673719</v>
       </c>
       <c r="S12">
-        <v>0.004426112783474885</v>
+        <v>0.001910813481071765</v>
       </c>
       <c r="T12">
-        <v>0.004426112783474884</v>
+        <v>0.001910813481071766</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H13">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>5743.093360479637</v>
+        <v>2068.059278206026</v>
       </c>
       <c r="R13">
-        <v>51687.84024431674</v>
+        <v>18612.53350385423</v>
       </c>
       <c r="S13">
-        <v>0.120533427809751</v>
+        <v>0.09160952893969686</v>
       </c>
       <c r="T13">
-        <v>0.120533427809751</v>
+        <v>0.09160952893969687</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H14">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>253.86697714057</v>
+        <v>161.8506374287549</v>
       </c>
       <c r="R14">
-        <v>2284.80279426513</v>
+        <v>1456.655736858794</v>
       </c>
       <c r="S14">
-        <v>0.00532804449480464</v>
+        <v>0.00716955302475657</v>
       </c>
       <c r="T14">
-        <v>0.00532804449480464</v>
+        <v>0.007169553024756571</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H15">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>212.9263089605737</v>
+        <v>109.9597037160342</v>
       </c>
       <c r="R15">
-        <v>1916.336780645164</v>
+        <v>989.6373334443081</v>
       </c>
       <c r="S15">
-        <v>0.004468800397100398</v>
+        <v>0.004870922591983359</v>
       </c>
       <c r="T15">
-        <v>0.004468800397100398</v>
+        <v>0.00487092259198336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H16">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>1338.562972782594</v>
+        <v>360.4641504972496</v>
       </c>
       <c r="R16">
-        <v>12047.06675504334</v>
+        <v>3244.177354475247</v>
       </c>
       <c r="S16">
-        <v>0.02809315003634592</v>
+        <v>0.01596760372137229</v>
       </c>
       <c r="T16">
-        <v>0.02809315003634591</v>
+        <v>0.0159676037213723</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H17">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>36452.20791731143</v>
+        <v>17281.61924427035</v>
       </c>
       <c r="R17">
-        <v>328069.8712558029</v>
+        <v>155534.5731984331</v>
       </c>
       <c r="S17">
-        <v>0.7650423379396969</v>
+        <v>0.7655297964457514</v>
       </c>
       <c r="T17">
-        <v>0.7650423379396969</v>
+        <v>0.7655297964457515</v>
       </c>
     </row>
   </sheetData>
